--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/SwaptionVolsWithProperties_v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/SwaptionVolsWithProperties_v2.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC4FA8-AE72-41F7-A2A2-6BC3F843A552}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="18075" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="630" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1772,7 +1781,7 @@
   <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2043,7 +2052,7 @@
       </c>
       <c r="N8" t="str">
         <f t="array" aca="1" ref="N8:N30" ca="1">_xll.HLV5r3.Financial.Cache.CreateVolatilitySurfaceCollection( K8:L24, K5:Q5, A3:I134)</f>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-1Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2079,11 +2088,11 @@
       </c>
       <c r="L9" s="8">
         <f ca="1">NOW()</f>
-        <v>43132.82325173611</v>
+        <v>43648.625188310187</v>
       </c>
       <c r="N9" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-2Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-2Y</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2119,11 +2128,11 @@
       </c>
       <c r="L10" s="10">
         <f ca="1">L9</f>
-        <v>43132.82325173611</v>
+        <v>43648.625188310187</v>
       </c>
       <c r="N10" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-3Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2162,7 +2171,7 @@
       </c>
       <c r="N11" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-4Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2201,7 +2210,7 @@
       </c>
       <c r="N12" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-5Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2240,7 +2249,7 @@
       </c>
       <c r="N13" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-6Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2280,7 +2289,7 @@
       </c>
       <c r="N14" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-7Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2319,7 +2328,7 @@
       </c>
       <c r="N15" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-8Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2359,7 +2368,7 @@
       </c>
       <c r="N16" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-9Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2398,7 +2407,7 @@
       </c>
       <c r="N17" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-10Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2437,7 +2446,7 @@
       </c>
       <c r="N18" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-15Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2476,7 +2485,7 @@
       </c>
       <c r="N19" t="str">
         <f ca="1"/>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-20Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2629,7 +2638,7 @@
       </c>
       <c r="L23" s="13">
         <f ca="1">L9</f>
-        <v>43132.82325173611</v>
+        <v>43648.625188310187</v>
       </c>
       <c r="N23" t="e">
         <f ca="1"/>
@@ -3091,7 +3100,7 @@
       </c>
       <c r="L36" s="21" t="str">
         <f ca="1">N8</f>
-        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk-1Y</v>
+        <v>Market.LIVE.RateVolatilityMatrix.AUD-IRSwap-1Y</v>
       </c>
       <c r="N36" s="23"/>
     </row>
